--- a/Docs/Combination Testing Plan Update.xlsx
+++ b/Docs/Combination Testing Plan Update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8070" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="U-1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>PDP-8 Instruction List</t>
   </si>
@@ -297,6 +297,72 @@
   </si>
   <si>
     <t>INPUT = OUTPUT</t>
+  </si>
+  <si>
+    <t>Micro 2</t>
+  </si>
+  <si>
+    <t>Combined Microinstructions Group 2</t>
+  </si>
+  <si>
+    <t>1111| CLA | SMA | SZA | SNL | 0/1 | OSR | HLT | 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       |    2    |   1   |     1    |     1    |    1   |    3   |    3   |</t>
+  </si>
+  <si>
+    <t>SPA SNA</t>
+  </si>
+  <si>
+    <t>SPA SZL</t>
+  </si>
+  <si>
+    <t>SPA SNA SZL</t>
+  </si>
+  <si>
+    <t>SNA SZL</t>
+  </si>
+  <si>
+    <t>SMA SZA</t>
+  </si>
+  <si>
+    <t>SMA SNL</t>
+  </si>
+  <si>
+    <t>SMA SZA SNL</t>
+  </si>
+  <si>
+    <t>SZA SNL</t>
+  </si>
+  <si>
+    <t>OSR HLT</t>
+  </si>
+  <si>
+    <t>SKIP ON POS AC AND SKIP ON NON-ZERO AC</t>
+  </si>
+  <si>
+    <t>SKIP ON POS AC AND SKIP ON ZERO LINK</t>
+  </si>
+  <si>
+    <t>SKIP ON POS AC AD NONZERO AC AND ZERO LINK</t>
+  </si>
+  <si>
+    <t>SKIP ON NONZERO AC AND ZERO LINK</t>
+  </si>
+  <si>
+    <t>SKIP ON MINUZ AC OR NONZERO AC</t>
+  </si>
+  <si>
+    <t>SKIP ON MINUS AC OR NONZERO LINK</t>
+  </si>
+  <si>
+    <t>SKIP ON MINUS AC OR ZERO AC OR NONZERO LINK</t>
+  </si>
+  <si>
+    <t>SKIP ON ZERO AC OR NONZERO LINK</t>
+  </si>
+  <si>
+    <t>OR SWITCH REGISTER WITH AC, HALT</t>
   </si>
 </sst>
 </file>
@@ -400,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -435,6 +501,15 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,7 +1464,7 @@
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
@@ -1407,7 +1482,7 @@
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="14" t="s">
@@ -1416,21 +1491,161 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="18">
+        <v>7550</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="18">
+        <v>7530</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="18"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="18">
+        <v>7570</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="18"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="18">
+        <v>7470</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="18">
+        <v>7540</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="18">
+        <v>7520</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="18"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="18">
+        <v>7560</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="18"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="18">
+        <v>7460</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="18"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="18">
+        <v>7403</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Combination Testing Plan Update.xlsx
+++ b/Docs/Combination Testing Plan Update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8070" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="8070" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="U-1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="118">
   <si>
     <t>PDP-8 Instruction List</t>
   </si>
@@ -287,9 +287,6 @@
     <t>ONLY POSSIBILITY IS RAR RAL / RAL RAR ( SAME RESULT )</t>
   </si>
   <si>
-    <t>COMBINATIONS &gt; 2 ALSO NOT POSSIBLE TO DIFFERENTIATE</t>
-  </si>
-  <si>
     <t>ROTATE ENCODING CANNOT BE DIFFERENTIATED ( NEED TO ERROR? )</t>
   </si>
   <si>
@@ -363,6 +360,15 @@
   </si>
   <si>
     <t>OR SWITCH REGISTER WITH AC, HALT</t>
+  </si>
+  <si>
+    <t>COMBINATIONS &gt; 2 ALSO NOT POSSIBLE TO DIFFERENTIATE for ROTATE INSTRUCTIONS</t>
+  </si>
+  <si>
+    <t>Op</t>
+  </si>
+  <si>
+    <t>CLA CLL, and CMA CML will be combined and executed in priority order</t>
   </si>
 </sst>
 </file>
@@ -816,16 +822,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -843,7 +849,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -1001,7 +1007,10 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="B26"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1344,20 +1353,20 @@
         <v>7014</v>
       </c>
       <c r="C78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D78" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+    </row>
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>91</v>
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,9 +1425,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
-        <v>90</v>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="B93" s="4">
         <v>7016</v>
@@ -1426,7 +1435,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1434,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,16 +1473,13 @@
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1482,7 +1488,7 @@
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="14" t="s">
@@ -1491,13 +1497,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="3"/>
     </row>
@@ -1507,13 +1513,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" s="18">
         <v>7550</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,13 +1528,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="18">
         <v>7530</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,13 +1543,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="18">
         <v>7570</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1552,13 +1558,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" s="18">
         <v>7470</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1575,13 +1581,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="18">
         <v>7540</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1590,13 +1596,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B22" s="18">
         <v>7520</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1605,13 +1611,13 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="18">
         <v>7560</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,13 +1626,13 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="18">
         <v>7460</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1635,17 +1641,17 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B28" s="18">
         <v>7403</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Combination Testing Plan Update.xlsx
+++ b/Docs/Combination Testing Plan Update.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="112">
   <si>
     <t>PDP-8 Instruction List</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Micro 1</t>
   </si>
   <si>
-    <t>Combined Microinstructions Group 1</t>
-  </si>
-  <si>
     <t>1110| CLA | CLL | CMA | CML | RAR | RAL | 0/1 | IAC</t>
   </si>
   <si>
@@ -254,21 +251,6 @@
     <t>INCREMENT AC AND ROTATE LEFT TWICE</t>
   </si>
   <si>
-    <t>ROTATE RIGHT ONCE AND ROTATE RIGHT TWICE</t>
-  </si>
-  <si>
-    <t>ROTATE RIGHT ONCE AND ROTATE LEFT TWICE</t>
-  </si>
-  <si>
-    <t>ROTATE LEFT ONCE AND ROTATE RIGHT TWICE</t>
-  </si>
-  <si>
-    <t>ROTATE LEFT ONCE AND ROTATE LEFT TWICE</t>
-  </si>
-  <si>
-    <t>ROTATE RIGHT TWICE AND ROTATE LEFT TWICE</t>
-  </si>
-  <si>
     <t>DEPENDENT ON AC</t>
   </si>
   <si>
@@ -281,18 +263,6 @@
     <t>TESTING PLAN FOR COMBINATION OF 2 INSTRUCTIONS.  DESIGN WILL EXECUTE BASED ON PRIORITY OF INSTRUCTION</t>
   </si>
   <si>
-    <t>ROTATE COMBINATIONS</t>
-  </si>
-  <si>
-    <t>ONLY POSSIBILITY IS RAR RAL / RAL RAR ( SAME RESULT )</t>
-  </si>
-  <si>
-    <t>ROTATE ENCODING CANNOT BE DIFFERENTIATED ( NEED TO ERROR? )</t>
-  </si>
-  <si>
-    <t>ROTATE RIGHT THEN LEFT BY 1 EACH, VICE VERSA</t>
-  </si>
-  <si>
     <t>INPUT = OUTPUT</t>
   </si>
   <si>
@@ -369,6 +339,18 @@
   </si>
   <si>
     <t>CLA CLL, and CMA CML will be combined and executed in priority order</t>
+  </si>
+  <si>
+    <t>RAR RAL or RAL RAR</t>
+  </si>
+  <si>
+    <t>ROTATE RIGHT THEN LEFT BY 1 EACH, VICE VERSA SAME RESULTS</t>
+  </si>
+  <si>
+    <t>CANNOT ENCODE BELOW</t>
+  </si>
+  <si>
+    <t>Combined Micro-INSTRs Group 1</t>
   </si>
 </sst>
 </file>
@@ -472,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -515,6 +497,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -822,16 +810,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="8" style="4" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -846,16 +834,16 @@
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -863,17 +851,17 @@
         <v>9</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -887,52 +875,52 @@
         <v>7300</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>7500</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>7220</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4">
         <v>7210</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -940,16 +928,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4">
         <v>7212</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -957,16 +945,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="4">
         <v>7240</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,16 +963,16 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4">
         <v>7260</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -998,10 +986,10 @@
         <v>7201</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,7 +997,7 @@
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B26"/>
     </row>
@@ -1024,10 +1012,10 @@
         <v>7140</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,16 +1023,16 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="8">
         <v>7120</v>
       </c>
       <c r="C30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
         <v>55</v>
-      </c>
-      <c r="D30" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,10 +1046,10 @@
         <v>7110</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1075,10 +1063,10 @@
         <v>7112</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1092,10 +1080,10 @@
         <v>7104</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1109,10 +1097,10 @@
         <v>7106</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1120,30 +1108,30 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="4">
         <v>7101</v>
       </c>
       <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
         <v>62</v>
-      </c>
-      <c r="D40" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" s="4">
         <v>7060</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1151,287 +1139,269 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="4">
         <v>7050</v>
       </c>
       <c r="C46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48" s="4">
         <v>7052</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B50" s="4">
         <v>7044</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="4">
         <v>7046</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="4">
         <v>7041</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B58" s="4">
         <v>7030</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="4">
         <v>7032</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62" s="4">
         <v>7024</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B64" s="4">
         <v>7026</v>
       </c>
       <c r="C64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B66" s="4">
         <v>7021</v>
       </c>
       <c r="C66" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B70" s="4">
         <v>7011</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="4">
         <v>7013</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B74" s="4">
         <v>7005</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B76" s="4">
         <v>7007</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B78" s="4">
         <v>7014</v>
       </c>
-      <c r="C78" t="s">
-        <v>91</v>
+      <c r="C78" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" s="10"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B83" s="4">
-        <v>7012</v>
-      </c>
-      <c r="C83" t="s">
-        <v>79</v>
-      </c>
-      <c r="D83" s="10"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+      <c r="B85"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B85" s="4">
-        <v>7016</v>
-      </c>
-      <c r="C85" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+      <c r="B87"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B87" s="4">
-        <v>7016</v>
-      </c>
-      <c r="C87" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="B89"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B89" s="4">
-        <v>7006</v>
-      </c>
-      <c r="C89" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B91" s="4">
-        <v>7016</v>
-      </c>
-      <c r="C91" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B93" s="4">
-        <v>7016</v>
-      </c>
+      <c r="B91"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92"/>
+    </row>
+    <row r="93" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1473,7 +1443,7 @@
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
@@ -1488,22 +1458,22 @@
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B8" s="3"/>
     </row>
@@ -1513,13 +1483,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B10" s="18">
         <v>7550</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1528,13 +1498,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B12" s="18">
         <v>7530</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,13 +1513,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B14" s="18">
         <v>7570</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1558,13 +1528,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B16" s="18">
         <v>7470</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,13 +1551,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B20" s="18">
         <v>7540</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1596,13 +1566,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B22" s="18">
         <v>7520</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1611,13 +1581,13 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B24" s="18">
         <v>7560</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1626,13 +1596,13 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B26" s="18">
         <v>7460</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1641,13 +1611,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B28" s="18">
         <v>7403</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
